--- a/2026/04-ENERO/informe_cripto.xlsx
+++ b/2026/04-ENERO/informe_cripto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1131a124248a455a/Escritorio/Oliver Preparacion Profesional/365-python-challenge/2026/04-ENERO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_293FAAE16AF65BF14FB7096116CB9B2B25F66D77" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{908E2E63-8331-422B-A721-0E548BA13948}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_293FAAE16AF65BB14EF7B9A112CB9B2B25F66D77" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F0917E5-B21D-4311-A92D-933736E33C99}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,32 +96,27 @@
       <sz val="28"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri Light"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FFCCCCCC"/>
       <name val="Calibri Light"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri Light"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri Light"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -348,7 +343,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E74-4A72-91F0-DE6A269F835A}"/>
+              <c16:uniqueId val="{00000000-ECC6-4B04-A782-750DDE931FDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -564,7 +559,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E37-4D2E-AEED-AF4FAC791928}"/>
+              <c16:uniqueId val="{00000000-DC4F-4BF8-88E0-8298F149BD3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -764,7 +759,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1576-4BB3-9D36-CBA825F9703E}"/>
+              <c16:uniqueId val="{00000000-4941-4197-91F1-A0A4C532FE31}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -932,10 +927,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1841,9 +1832,6 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
@@ -1936,7 +1924,7 @@
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.27777777777777779" right="0.27777777777777779" top="0.27777777777777779" bottom="0.27777777777777779" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;COliver Javier Morales Pérez — 365 Python Challenge — 02/02/2026</oddFooter>
   </headerFooter>

--- a/2026/04-ENERO/informe_cripto.xlsx
+++ b/2026/04-ENERO/informe_cripto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1131a124248a455a/Escritorio/Oliver Preparacion Profesional/365-python-challenge/2026/04-ENERO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_293FAAE16AF65BB14EF7B9A112CB9B2B25F66D77" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F0917E5-B21D-4311-A92D-933736E33C99}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_293FAAE16AF65B21CDF02D8114CB9B2B25F66D77" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3048404-C44D-4CFC-9929-8583EB1D0DF4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,7 +343,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ECC6-4B04-A782-750DDE931FDF}"/>
+              <c16:uniqueId val="{00000000-FBFA-41F9-8CA3-47CCFE35425E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -559,7 +559,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DC4F-4BF8-88E0-8298F149BD3C}"/>
+              <c16:uniqueId val="{00000000-6F0D-438B-AD9A-942A683DD775}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -759,7 +759,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4941-4197-91F1-A0A4C532FE31}"/>
+              <c16:uniqueId val="{00000000-879F-422D-A1BD-F9712E5848A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
